--- a/gapMinder-DT1/data/GapMinder Validado.xlsx
+++ b/gapMinder-DT1/data/GapMinder Validado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avelez/Desktop/PAAA/Excel Documets/Delitos Tipo 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avelez/Documents/GitHub/erduprojectarecibo.github.io/gapMinder-DT1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ABC543C-40D2-E742-B3EE-235C9587F39D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F2B39B-5D8C-BC47-B042-7CB89721AAA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{1E8408A5-A65C-5141-B9E3-3A48FD0CEBF2}"/>
   </bookViews>
@@ -67,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +87,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,10 +144,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -153,9 +161,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7A77AAA1-FD51-9842-B032-874A53721C19}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D172E5B-3A9C-5B41-A7F7-B3127C515192}">
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1584,8 +1594,8 @@
       <c r="D65" s="3">
         <v>771</v>
       </c>
-      <c r="E65" s="4">
-        <v>2730.5</v>
+      <c r="E65" s="10">
+        <v>2760.0674883400629</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1737,8 +1747,8 @@
       <c r="D74" s="3">
         <v>629.4</v>
       </c>
-      <c r="E74" s="4">
-        <v>2534.4</v>
+      <c r="E74" s="10">
+        <v>2539.6212774720725</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">

--- a/gapMinder-DT1/data/GapMinder Validado.xlsx
+++ b/gapMinder-DT1/data/GapMinder Validado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avelez/Documents/GitHub/erduprojectarecibo.github.io/gapMinder-DT1/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avelez/Desktop/PAAA/Excel Documets/Delitos Tipo 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F2B39B-5D8C-BC47-B042-7CB89721AAA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5999B20-BE60-224E-B4D8-4986DE90D1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{1E8408A5-A65C-5141-B9E3-3A48FD0CEBF2}"/>
+    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{515F23AC-0128-DC40-94E4-850EEF2B6838}"/>
   </bookViews>
   <sheets>
     <sheet name="Gapminder Validado" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="8">
   <si>
     <t>Country</t>
   </si>
@@ -76,6 +79,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +97,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -143,29 +146,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{7A77AAA1-FD51-9842-B032-874A53721C19}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{431B97C7-0A40-314E-AD2A-093558BF8B31}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,11 +494,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D172E5B-3A9C-5B41-A7F7-B3127C515192}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC51F33-4AAC-2049-9C85-5EA1D655BC5B}">
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1594,8 +1612,8 @@
       <c r="D65" s="3">
         <v>771</v>
       </c>
-      <c r="E65" s="10">
-        <v>2760.0674883400629</v>
+      <c r="E65" s="4">
+        <v>2730.5</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1747,8 +1765,8 @@
       <c r="D74" s="3">
         <v>629.4</v>
       </c>
-      <c r="E74" s="10">
-        <v>2539.6212774720725</v>
+      <c r="E74" s="4">
+        <v>2534.4</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3118,7 +3136,7 @@
       <c r="B155" s="2">
         <v>2016</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="10">
         <v>3195153</v>
       </c>
       <c r="D155" s="3">
@@ -3163,68 +3181,234 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
+      <c r="A158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C158" s="11">
+        <v>3325001</v>
+      </c>
+      <c r="D158" s="4">
+        <v>234.22549346601701</v>
+      </c>
+      <c r="E158" s="4">
+        <v>937.62377815826221</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
+      <c r="A159" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C159" s="8">
+        <v>20484142</v>
+      </c>
+      <c r="D159" s="4">
+        <v>417.46927940647936</v>
+      </c>
+      <c r="E159" s="4">
+        <v>2572.380136790694</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-    </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-    </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-    </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-    </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E166" s="4"/>
-    </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E167" s="4"/>
-    </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-    </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-    </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C160" s="9">
+        <v>19593849</v>
+      </c>
+      <c r="D160" s="7">
+        <v>360.79690110911849</v>
+      </c>
+      <c r="E160" s="4">
+        <v>1492.5296198822396</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C161" s="11">
+        <v>3195153</v>
+      </c>
+      <c r="D161" s="4">
+        <v>201.05453479066574</v>
+      </c>
+      <c r="E161" s="4">
+        <v>776.45734022752583</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C162" s="10">
+        <v>20841507</v>
+      </c>
+      <c r="D162" s="4">
+        <v>392.99461406509613</v>
+      </c>
+      <c r="E162" s="4">
+        <v>2170.0500679229531</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C163" s="9">
+        <v>19544098</v>
+      </c>
+      <c r="D163" s="7">
+        <v>350.8117898303621</v>
+      </c>
+      <c r="E163" s="7">
+        <v>1435.272172704005</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C164" s="12">
+        <v>3193694</v>
+      </c>
+      <c r="D164" s="4">
+        <v>199.29899357922207</v>
+      </c>
+      <c r="E164" s="4">
+        <v>693.61685872221949</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C165" s="10">
+        <v>21208589</v>
+      </c>
+      <c r="D165" s="3">
+        <v>382.34981120149013</v>
+      </c>
+      <c r="E165" s="4">
+        <v>2328.3824917267261</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C166" s="10">
+        <v>19463131</v>
+      </c>
+      <c r="D166" s="7">
+        <v>358.98129648307867</v>
+      </c>
+      <c r="E166" s="7">
+        <v>1371.5367789488751</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C167" s="13">
+        <v>3285874</v>
+      </c>
+      <c r="D167" s="4">
+        <v>156.85324513356264</v>
+      </c>
+      <c r="E167" s="4">
+        <v>397.21547448258821</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C168" s="8">
+        <v>21596068</v>
+      </c>
+      <c r="D168" s="4">
+        <v>384.05602353169104</v>
+      </c>
+      <c r="E168" s="4">
+        <v>1768.2107687380869</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C169" s="9">
+        <v>19336776</v>
+      </c>
+      <c r="D169" s="7">
+        <v>364.81262440026194</v>
+      </c>
+      <c r="E169" s="7">
+        <v>1406.180637351335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
     </row>
